--- a/Report/时光.xlsx
+++ b/Report/时光.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2085" windowWidth="28800" windowHeight="16260" tabRatio="874" activeTab="8"/>
+    <workbookView xWindow="945" yWindow="2085" windowWidth="28800" windowHeight="16260" tabRatio="874" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="关键指标" sheetId="1" r:id="rId1"/>
@@ -40,19 +40,19 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId19"/>
-    <pivotCache cacheId="10" r:id="rId20"/>
-    <pivotCache cacheId="11" r:id="rId21"/>
-    <pivotCache cacheId="12" r:id="rId22"/>
-    <pivotCache cacheId="13" r:id="rId23"/>
-    <pivotCache cacheId="14" r:id="rId24"/>
-    <pivotCache cacheId="24" r:id="rId25"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="1" r:id="rId20"/>
+    <pivotCache cacheId="2" r:id="rId21"/>
+    <pivotCache cacheId="3" r:id="rId22"/>
+    <pivotCache cacheId="4" r:id="rId23"/>
+    <pivotCache cacheId="5" r:id="rId24"/>
+    <pivotCache cacheId="6" r:id="rId25"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1736">
   <si>
     <t>注：所有比率数据都采用差值方式</t>
   </si>
@@ -4694,73 +4694,10 @@
     <t>2018-09-12</t>
   </si>
   <si>
-    <t>16:47:36</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>{"效果":5,"环境":5,"服务":5}</t>
-  </si>
-  <si>
-    <t>最近额头冒痘痘了，听说果酸换肤可以治疗和预防痘痘肌，搜索一下发现时光的果酸换肤这个项目，团购挺多的而且评价也不错，就来体验一下。整个治疗感觉不错，技师手法娴熟，还教我很多护肤常识，免费给我清理了痘痘，不含隐形消费，挺好的。</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>2018-09-09 12:13:29</t>
-  </si>
-  <si>
-    <t>08:07:37</t>
-  </si>
-  <si>
-    <t>环境比较温馨，在王卓然故居；医院院子里花花草草好生热闹[微笑]前台小姐姐接待热情而不做作，真诚而又自然.除了这些看到的和直观感受到的，还有的就是治疗方法，虽然手法很专业细心娴熟，提出我肌肤的一些小问题，以及日后建议我去做的护肤之道.真的很棒</t>
-  </si>
-  <si>
-    <t>2018-09-07 16:14:13</t>
-  </si>
-  <si>
     <t>2018-09-11</t>
   </si>
   <si>
-    <t>13:24:20</t>
-  </si>
-  <si>
-    <t>最近痘痘长的厉害，所以来体验果酸焕肤和小气泡，来清洁一下皮肤，治疗一下痘痘。医师们的意见都相当专业，态度特别好特别贴心！因为中午公司午休来的，还有卸妆油，洗面奶先洗干净了脸，医生在做的过程中也一直细心讲解～以后还会来哒！</t>
-  </si>
-  <si>
-    <t>2018-09-11 12:09:43</t>
-  </si>
-  <si>
-    <t>2018-09-09</t>
-  </si>
-  <si>
-    <t>13:17:17</t>
-  </si>
-  <si>
-    <t>白蝴蝶show</t>
-  </si>
-  <si>
-    <t>朋友推荐的这家，环境很好，干净整洁。去之前有别的事所以化了妆，医师提供了卸妆的产品。洗面奶有三种，非常齐全。做了果酸和小气泡。效果显著！秋天换季后突然爆痘，果酸太强大了！去了我那颗大痘[捂脸]今天咨询了祛斑的项目，准备找时间去治疗一下我的“顽疾”[笑哭]</t>
-  </si>
-  <si>
-    <t>2018-08-17 18:18:34</t>
-  </si>
-  <si>
     <t>2018-08-15</t>
-  </si>
-  <si>
-    <t>18:09:51</t>
-  </si>
-  <si>
-    <t>chang059999</t>
-  </si>
-  <si>
-    <t>用小气泡洗脸洗的很干净，导入玻尿酸的之后，脸软软的</t>
-  </si>
-  <si>
-    <t>2018-08-07 12:06:57</t>
   </si>
   <si>
     <t>门店名称</t>
@@ -6424,6 +6361,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6476,44 +6446,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -20351,75 +20288,391 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U16:U17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:B24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item h="1" m="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="25">
+        <item m="1" x="3"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="4"/>
+        <item m="1" x="9"/>
+        <item m="1" x="14"/>
+        <item m="1" x="8"/>
+        <item m="1" x="15"/>
+        <item m="1" x="19"/>
+        <item m="1" x="10"/>
+        <item m="1" x="16"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="23"/>
+        <item m="1" x="20"/>
+        <item m="1" x="18"/>
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="13"/>
+        <item m="1" x="17"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand"/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand"/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:顾客标签" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I6:J7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
         <item m="1" x="1"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="5"/>
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="4"/>
         <item h="1" m="1" x="1"/>
         <item h="1" m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item h="1" m="1" x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="32">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="243">
+        <item m="1" x="7"/>
+        <item m="1" x="187"/>
+        <item m="1" x="128"/>
+        <item m="1" x="67"/>
+        <item m="1" x="184"/>
+        <item m="1" x="123"/>
+        <item m="1" x="62"/>
+        <item m="1" x="52"/>
+        <item m="1" x="46"/>
+        <item m="1" x="228"/>
+        <item m="1" x="102"/>
+        <item m="1" x="40"/>
+        <item m="1" x="162"/>
+        <item m="1" x="216"/>
+        <item m="1" x="156"/>
+        <item m="1" x="48"/>
+        <item m="1" x="230"/>
+        <item m="1" x="167"/>
+        <item m="1" x="104"/>
+        <item m="1" x="43"/>
+        <item m="1" x="224"/>
+        <item m="1" x="164"/>
+        <item m="1" x="100"/>
+        <item m="1" x="37"/>
+        <item m="1" x="219"/>
+        <item m="1" x="159"/>
+        <item m="1" x="96"/>
+        <item m="1" x="32"/>
+        <item m="1" x="212"/>
+        <item m="1" x="152"/>
+        <item m="1" x="90"/>
+        <item m="1" x="28"/>
+        <item m="1" x="87"/>
+        <item m="1" x="24"/>
+        <item m="1" x="203"/>
+        <item m="1" x="146"/>
+        <item m="1" x="22"/>
+        <item m="1" x="201"/>
+        <item m="1" x="142"/>
+        <item m="1" x="18"/>
+        <item m="1" x="198"/>
+        <item m="1" x="138"/>
+        <item m="1" x="78"/>
+        <item m="1" x="15"/>
+        <item m="1" x="195"/>
+        <item m="1" x="135"/>
+        <item m="1" x="73"/>
+        <item m="1" x="11"/>
+        <item m="1" x="190"/>
+        <item m="1" x="132"/>
+        <item m="1" x="69"/>
+        <item m="1" x="6"/>
+        <item m="1" x="186"/>
+        <item m="1" x="126"/>
+        <item m="1" x="65"/>
+        <item m="1" x="2"/>
+        <item m="1" x="182"/>
+        <item m="1" x="121"/>
+        <item m="1" x="61"/>
+        <item m="1" x="241"/>
+        <item m="1" x="177"/>
+        <item m="1" x="115"/>
+        <item m="1" x="57"/>
+        <item m="1" x="236"/>
+        <item m="1" x="172"/>
+        <item m="1" x="110"/>
+        <item m="1" x="50"/>
+        <item m="1" x="232"/>
+        <item m="1" x="168"/>
+        <item m="1" x="106"/>
+        <item m="1" x="44"/>
+        <item m="1" x="226"/>
+        <item m="1" x="165"/>
+        <item m="1" x="118"/>
+        <item m="1" x="59"/>
+        <item m="1" x="239"/>
+        <item m="1" x="174"/>
+        <item m="1" x="113"/>
+        <item m="1" x="54"/>
+        <item m="1" x="233"/>
+        <item m="1" x="170"/>
+        <item m="1" x="108"/>
+        <item m="1" x="47"/>
+        <item m="1" x="229"/>
+        <item m="1" x="166"/>
+        <item m="1" x="103"/>
+        <item m="1" x="42"/>
+        <item m="1" x="223"/>
+        <item m="1" x="99"/>
+        <item m="1" x="36"/>
+        <item m="1" x="218"/>
+        <item m="1" x="158"/>
+        <item m="1" x="95"/>
+        <item m="1" x="31"/>
+        <item m="1" x="211"/>
+        <item m="1" x="27"/>
+        <item m="1" x="206"/>
+        <item m="1" x="149"/>
+        <item m="1" x="160"/>
+        <item m="1" x="97"/>
+        <item m="1" x="34"/>
+        <item m="1" x="214"/>
+        <item m="1" x="154"/>
+        <item m="1" x="92"/>
+        <item m="1" x="29"/>
+        <item m="1" x="208"/>
+        <item m="1" x="150"/>
+        <item m="1" x="88"/>
+        <item m="1" x="25"/>
+        <item m="1" x="204"/>
+        <item m="1" x="147"/>
+        <item m="1" x="85"/>
+        <item m="1" x="144"/>
+        <item m="1" x="82"/>
+        <item m="1" x="20"/>
         <item x="0"/>
+        <item m="1" x="140"/>
+        <item m="1" x="77"/>
+        <item m="1" x="14"/>
+        <item m="1" x="194"/>
+        <item m="1" x="134"/>
+        <item m="1" x="72"/>
+        <item m="1" x="10"/>
+        <item m="1" x="189"/>
+        <item m="1" x="131"/>
+        <item m="1" x="68"/>
+        <item m="1" x="200"/>
+        <item m="1" x="141"/>
+        <item m="1" x="80"/>
+        <item m="1" x="17"/>
+        <item m="1" x="197"/>
+        <item m="1" x="137"/>
+        <item m="1" x="75"/>
+        <item m="1" x="192"/>
+        <item m="1" x="70"/>
+        <item m="1" x="8"/>
+        <item m="1" x="188"/>
+        <item m="1" x="129"/>
+        <item m="1" x="4"/>
+        <item m="1" x="185"/>
+        <item m="1" x="124"/>
+        <item m="1" x="63"/>
+        <item m="1" x="1"/>
+        <item m="1" x="179"/>
+        <item m="1" x="117"/>
+        <item m="1" x="58"/>
+        <item m="1" x="238"/>
+        <item m="1" x="112"/>
+        <item m="1" x="53"/>
+        <item m="1" x="169"/>
+        <item m="1" x="105"/>
+        <item m="1" x="231"/>
+        <item m="1" x="49"/>
+        <item m="1" x="109"/>
+        <item m="1" x="235"/>
+        <item m="1" x="56"/>
+        <item m="1" x="114"/>
+        <item m="1" x="176"/>
+        <item m="1" x="120"/>
+        <item m="1" x="181"/>
+        <item m="1" x="33"/>
+        <item m="1" x="220"/>
+        <item m="1" x="38"/>
+        <item m="1" x="225"/>
+        <item m="1" x="213"/>
+        <item m="1" x="153"/>
+        <item m="1" x="91"/>
+        <item m="1" x="207"/>
+        <item m="1" x="41"/>
+        <item m="1" x="222"/>
+        <item m="1" x="163"/>
+        <item m="1" x="98"/>
+        <item m="1" x="217"/>
+        <item m="1" x="157"/>
+        <item m="1" x="94"/>
+        <item m="1" x="30"/>
+        <item m="1" x="26"/>
+        <item m="1" x="89"/>
+        <item m="1" x="151"/>
+        <item m="1" x="210"/>
+        <item m="1" x="205"/>
+        <item m="1" x="148"/>
+        <item m="1" x="86"/>
+        <item m="1" x="23"/>
+        <item m="1" x="145"/>
+        <item m="1" x="83"/>
+        <item m="1" x="21"/>
+        <item m="1" x="199"/>
+        <item m="1" x="79"/>
+        <item m="1" x="16"/>
+        <item m="1" x="196"/>
+        <item m="1" x="136"/>
+        <item m="1" x="74"/>
+        <item m="1" x="12"/>
+        <item m="1" x="191"/>
+        <item m="1" x="143"/>
+        <item m="1" x="202"/>
+        <item m="1" x="84"/>
+        <item m="1" x="81"/>
+        <item m="1" x="19"/>
+        <item m="1" x="139"/>
+        <item m="1" x="76"/>
+        <item m="1" x="13"/>
+        <item m="1" x="193"/>
+        <item m="1" x="133"/>
+        <item m="1" x="71"/>
+        <item m="1" x="9"/>
+        <item m="1" x="130"/>
         <item m="1" x="5"/>
-        <item m="1" x="19"/>
-        <item m="1" x="13"/>
-        <item m="1" x="16"/>
-        <item m="1" x="7"/>
-        <item m="1" x="18"/>
-        <item m="1" x="10"/>
-        <item m="1" x="26"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="8"/>
-        <item m="1" x="28"/>
-        <item m="1" x="17"/>
-        <item m="1" x="25"/>
+        <item m="1" x="125"/>
+        <item m="1" x="64"/>
+        <item m="1" x="180"/>
+        <item m="1" x="119"/>
+        <item m="1" x="60"/>
+        <item m="1" x="240"/>
+        <item m="1" x="175"/>
+        <item m="1" x="55"/>
+        <item m="1" x="234"/>
+        <item m="1" x="171"/>
+        <item m="1" x="127"/>
+        <item m="1" x="66"/>
+        <item m="1" x="3"/>
+        <item m="1" x="183"/>
+        <item m="1" x="122"/>
+        <item m="1" x="178"/>
+        <item m="1" x="116"/>
+        <item m="1" x="237"/>
+        <item m="1" x="173"/>
+        <item m="1" x="111"/>
+        <item m="1" x="51"/>
+        <item m="1" x="107"/>
+        <item m="1" x="45"/>
+        <item m="1" x="227"/>
+        <item m="1" x="101"/>
+        <item m="1" x="39"/>
+        <item m="1" x="221"/>
+        <item m="1" x="35"/>
+        <item m="1" x="161"/>
+        <item m="1" x="209"/>
+        <item m="1" x="93"/>
+        <item m="1" x="215"/>
+        <item m="1" x="155"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
         <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="24"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
         <item m="1" x="3"/>
-        <item m="1" x="11"/>
-        <item m="1" x="29"/>
-        <item m="1" x="22"/>
-        <item m="1" x="2"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="12"/>
-        <item m="1" x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="23"/>
-        <item m="1" x="27"/>
-        <item m="1" x="15"/>
-        <item m="1" x="30"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
   <rowItems count="1">
-    <i/>
+    <i t="grand"/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -20430,14 +20683,1197 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="计数项:用户昵称" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R6:S7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item h="1" m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="69">
+        <item m="1" x="52"/>
+        <item m="1" x="36"/>
+        <item m="1" x="17"/>
+        <item m="1" x="67"/>
+        <item m="1" x="49"/>
+        <item m="1" x="10"/>
+        <item m="1" x="61"/>
+        <item m="1" x="46"/>
+        <item m="1" x="15"/>
+        <item m="1" x="65"/>
+        <item m="1" x="50"/>
+        <item m="1" x="35"/>
+        <item m="1" x="13"/>
+        <item m="1" x="63"/>
+        <item m="1" x="48"/>
+        <item m="1" x="34"/>
+        <item m="1" x="12"/>
+        <item m="1" x="32"/>
+        <item m="1" x="59"/>
+        <item m="1" x="31"/>
+        <item m="1" x="6"/>
+        <item m="1" x="43"/>
+        <item m="1" x="27"/>
+        <item m="1" x="24"/>
+        <item m="1" x="22"/>
+        <item m="1" x="2"/>
+        <item m="1" x="55"/>
+        <item m="1" x="20"/>
+        <item m="1" x="37"/>
+        <item m="1" x="14"/>
+        <item m="1" x="64"/>
+        <item m="1" x="39"/>
+        <item m="1" x="54"/>
+        <item m="1" x="44"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="38"/>
+        <item m="1" x="18"/>
+        <item m="1" x="53"/>
+        <item m="1" x="16"/>
+        <item m="1" x="51"/>
+        <item m="1" x="19"/>
+        <item m="1" x="1"/>
+        <item m="1" x="33"/>
+        <item m="1" x="60"/>
+        <item m="1" x="45"/>
+        <item m="1" x="8"/>
+        <item m="1" x="47"/>
+        <item m="1" x="62"/>
+        <item m="1" x="11"/>
+        <item m="1" x="9"/>
+        <item m="1" x="30"/>
+        <item m="1" x="7"/>
+        <item m="1" x="29"/>
+        <item m="1" x="42"/>
+        <item m="1" x="56"/>
+        <item m="1" x="25"/>
+        <item m="1" x="40"/>
+        <item m="1" x="57"/>
+        <item m="1" x="4"/>
+        <item m="1" x="28"/>
+        <item m="1" x="5"/>
+        <item m="1" x="58"/>
+        <item m="1" x="41"/>
+        <item m="1" x="26"/>
+        <item m="1" x="23"/>
+        <item m="1" x="21"/>
+        <item m="1" x="66"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F16:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item h="1" m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="G1:K13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="368">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="12">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="10"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="4" count="1" selected="0">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item h="1" sd="0" x="0"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colFields count="3">
+    <field x="4"/>
+    <field x="0"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i/>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i/>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="计数 / 分类" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="求和 / 价格" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O6:P7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="69">
+        <item m="1" x="52"/>
+        <item m="1" x="36"/>
+        <item m="1" x="17"/>
+        <item m="1" x="67"/>
+        <item m="1" x="49"/>
+        <item m="1" x="10"/>
+        <item m="1" x="61"/>
+        <item m="1" x="46"/>
+        <item m="1" x="15"/>
+        <item m="1" x="65"/>
+        <item m="1" x="50"/>
+        <item m="1" x="35"/>
+        <item m="1" x="13"/>
+        <item m="1" x="63"/>
+        <item m="1" x="48"/>
+        <item m="1" x="34"/>
+        <item m="1" x="12"/>
+        <item m="1" x="32"/>
+        <item m="1" x="59"/>
+        <item m="1" x="31"/>
+        <item m="1" x="6"/>
+        <item m="1" x="43"/>
+        <item m="1" x="27"/>
+        <item m="1" x="24"/>
+        <item m="1" x="22"/>
+        <item m="1" x="2"/>
+        <item m="1" x="55"/>
+        <item m="1" x="20"/>
+        <item m="1" x="37"/>
+        <item m="1" x="14"/>
+        <item m="1" x="64"/>
+        <item m="1" x="39"/>
+        <item m="1" x="54"/>
+        <item m="1" x="44"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="38"/>
+        <item m="1" x="18"/>
+        <item m="1" x="53"/>
+        <item m="1" x="16"/>
+        <item m="1" x="51"/>
+        <item m="1" x="19"/>
+        <item m="1" x="1"/>
+        <item m="1" x="33"/>
+        <item m="1" x="60"/>
+        <item m="1" x="45"/>
+        <item m="1" x="8"/>
+        <item m="1" x="47"/>
+        <item m="1" x="62"/>
+        <item m="1" x="11"/>
+        <item m="1" x="9"/>
+        <item m="1" x="30"/>
+        <item m="1" x="7"/>
+        <item m="1" x="29"/>
+        <item m="1" x="42"/>
+        <item m="1" x="56"/>
+        <item m="1" x="25"/>
+        <item m="1" x="40"/>
+        <item m="1" x="57"/>
+        <item m="1" x="4"/>
+        <item m="1" x="28"/>
+        <item m="1" x="5"/>
+        <item m="1" x="58"/>
+        <item m="1" x="41"/>
+        <item m="1" x="26"/>
+        <item m="1" x="23"/>
+        <item m="1" x="21"/>
+        <item m="1" x="66"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L6:M7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item h="1" m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="243">
+        <item m="1" x="7"/>
+        <item m="1" x="187"/>
+        <item m="1" x="128"/>
+        <item m="1" x="67"/>
+        <item m="1" x="184"/>
+        <item m="1" x="123"/>
+        <item m="1" x="62"/>
+        <item m="1" x="52"/>
+        <item m="1" x="46"/>
+        <item m="1" x="228"/>
+        <item m="1" x="102"/>
+        <item m="1" x="40"/>
+        <item m="1" x="162"/>
+        <item m="1" x="216"/>
+        <item m="1" x="156"/>
+        <item m="1" x="48"/>
+        <item m="1" x="230"/>
+        <item m="1" x="167"/>
+        <item m="1" x="104"/>
+        <item m="1" x="43"/>
+        <item m="1" x="224"/>
+        <item m="1" x="164"/>
+        <item m="1" x="100"/>
+        <item m="1" x="37"/>
+        <item m="1" x="219"/>
+        <item m="1" x="159"/>
+        <item m="1" x="96"/>
+        <item m="1" x="32"/>
+        <item m="1" x="212"/>
+        <item m="1" x="152"/>
+        <item m="1" x="90"/>
+        <item m="1" x="28"/>
+        <item m="1" x="87"/>
+        <item m="1" x="24"/>
+        <item m="1" x="203"/>
+        <item m="1" x="146"/>
+        <item m="1" x="22"/>
+        <item m="1" x="201"/>
+        <item m="1" x="142"/>
+        <item m="1" x="18"/>
+        <item m="1" x="198"/>
+        <item m="1" x="138"/>
+        <item m="1" x="78"/>
+        <item m="1" x="15"/>
+        <item m="1" x="195"/>
+        <item m="1" x="135"/>
+        <item m="1" x="73"/>
+        <item m="1" x="11"/>
+        <item m="1" x="190"/>
+        <item m="1" x="132"/>
+        <item m="1" x="69"/>
+        <item m="1" x="6"/>
+        <item m="1" x="186"/>
+        <item m="1" x="126"/>
+        <item m="1" x="65"/>
+        <item m="1" x="2"/>
+        <item m="1" x="182"/>
+        <item m="1" x="121"/>
+        <item m="1" x="61"/>
+        <item m="1" x="241"/>
+        <item m="1" x="177"/>
+        <item m="1" x="115"/>
+        <item m="1" x="57"/>
+        <item m="1" x="236"/>
+        <item m="1" x="172"/>
+        <item m="1" x="110"/>
+        <item m="1" x="50"/>
+        <item m="1" x="232"/>
+        <item m="1" x="168"/>
+        <item m="1" x="106"/>
+        <item m="1" x="44"/>
+        <item m="1" x="226"/>
+        <item m="1" x="165"/>
+        <item m="1" x="118"/>
+        <item m="1" x="59"/>
+        <item m="1" x="239"/>
+        <item m="1" x="174"/>
+        <item m="1" x="113"/>
+        <item m="1" x="54"/>
+        <item m="1" x="233"/>
+        <item m="1" x="170"/>
+        <item m="1" x="108"/>
+        <item m="1" x="47"/>
+        <item m="1" x="229"/>
+        <item m="1" x="166"/>
+        <item m="1" x="103"/>
+        <item m="1" x="42"/>
+        <item m="1" x="223"/>
+        <item m="1" x="99"/>
+        <item m="1" x="36"/>
+        <item m="1" x="218"/>
+        <item m="1" x="158"/>
+        <item m="1" x="95"/>
+        <item m="1" x="31"/>
+        <item m="1" x="211"/>
+        <item m="1" x="27"/>
+        <item m="1" x="206"/>
+        <item m="1" x="149"/>
+        <item m="1" x="160"/>
+        <item m="1" x="97"/>
+        <item m="1" x="34"/>
+        <item m="1" x="214"/>
+        <item m="1" x="154"/>
+        <item m="1" x="92"/>
+        <item m="1" x="29"/>
+        <item m="1" x="208"/>
+        <item m="1" x="150"/>
+        <item m="1" x="88"/>
+        <item m="1" x="25"/>
+        <item m="1" x="204"/>
+        <item m="1" x="147"/>
+        <item m="1" x="85"/>
+        <item m="1" x="144"/>
+        <item m="1" x="82"/>
+        <item m="1" x="20"/>
+        <item x="0"/>
+        <item m="1" x="140"/>
+        <item m="1" x="77"/>
+        <item m="1" x="14"/>
+        <item m="1" x="194"/>
+        <item m="1" x="134"/>
+        <item m="1" x="72"/>
+        <item m="1" x="10"/>
+        <item m="1" x="189"/>
+        <item m="1" x="131"/>
+        <item m="1" x="68"/>
+        <item m="1" x="200"/>
+        <item m="1" x="141"/>
+        <item m="1" x="80"/>
+        <item m="1" x="17"/>
+        <item m="1" x="197"/>
+        <item m="1" x="137"/>
+        <item m="1" x="75"/>
+        <item m="1" x="192"/>
+        <item m="1" x="70"/>
+        <item m="1" x="8"/>
+        <item m="1" x="188"/>
+        <item m="1" x="129"/>
+        <item m="1" x="4"/>
+        <item m="1" x="185"/>
+        <item m="1" x="124"/>
+        <item m="1" x="63"/>
+        <item m="1" x="1"/>
+        <item m="1" x="179"/>
+        <item m="1" x="117"/>
+        <item m="1" x="58"/>
+        <item m="1" x="238"/>
+        <item m="1" x="112"/>
+        <item m="1" x="53"/>
+        <item m="1" x="169"/>
+        <item m="1" x="105"/>
+        <item m="1" x="231"/>
+        <item m="1" x="49"/>
+        <item m="1" x="109"/>
+        <item m="1" x="235"/>
+        <item m="1" x="56"/>
+        <item m="1" x="114"/>
+        <item m="1" x="176"/>
+        <item m="1" x="120"/>
+        <item m="1" x="181"/>
+        <item m="1" x="33"/>
+        <item m="1" x="220"/>
+        <item m="1" x="38"/>
+        <item m="1" x="225"/>
+        <item m="1" x="213"/>
+        <item m="1" x="153"/>
+        <item m="1" x="91"/>
+        <item m="1" x="207"/>
+        <item m="1" x="41"/>
+        <item m="1" x="222"/>
+        <item m="1" x="163"/>
+        <item m="1" x="98"/>
+        <item m="1" x="217"/>
+        <item m="1" x="157"/>
+        <item m="1" x="94"/>
+        <item m="1" x="30"/>
+        <item m="1" x="26"/>
+        <item m="1" x="89"/>
+        <item m="1" x="151"/>
+        <item m="1" x="210"/>
+        <item m="1" x="205"/>
+        <item m="1" x="148"/>
+        <item m="1" x="86"/>
+        <item m="1" x="23"/>
+        <item m="1" x="145"/>
+        <item m="1" x="83"/>
+        <item m="1" x="21"/>
+        <item m="1" x="199"/>
+        <item m="1" x="79"/>
+        <item m="1" x="16"/>
+        <item m="1" x="196"/>
+        <item m="1" x="136"/>
+        <item m="1" x="74"/>
+        <item m="1" x="12"/>
+        <item m="1" x="191"/>
+        <item m="1" x="143"/>
+        <item m="1" x="202"/>
+        <item m="1" x="84"/>
+        <item m="1" x="81"/>
+        <item m="1" x="19"/>
+        <item m="1" x="139"/>
+        <item m="1" x="76"/>
+        <item m="1" x="13"/>
+        <item m="1" x="193"/>
+        <item m="1" x="133"/>
+        <item m="1" x="71"/>
+        <item m="1" x="9"/>
+        <item m="1" x="130"/>
+        <item m="1" x="5"/>
+        <item m="1" x="125"/>
+        <item m="1" x="64"/>
+        <item m="1" x="180"/>
+        <item m="1" x="119"/>
+        <item m="1" x="60"/>
+        <item m="1" x="240"/>
+        <item m="1" x="175"/>
+        <item m="1" x="55"/>
+        <item m="1" x="234"/>
+        <item m="1" x="171"/>
+        <item m="1" x="127"/>
+        <item m="1" x="66"/>
+        <item m="1" x="3"/>
+        <item m="1" x="183"/>
+        <item m="1" x="122"/>
+        <item m="1" x="178"/>
+        <item m="1" x="116"/>
+        <item m="1" x="237"/>
+        <item m="1" x="173"/>
+        <item m="1" x="111"/>
+        <item m="1" x="51"/>
+        <item m="1" x="107"/>
+        <item m="1" x="45"/>
+        <item m="1" x="227"/>
+        <item m="1" x="101"/>
+        <item m="1" x="39"/>
+        <item m="1" x="221"/>
+        <item m="1" x="35"/>
+        <item m="1" x="161"/>
+        <item m="1" x="209"/>
+        <item m="1" x="93"/>
+        <item m="1" x="215"/>
+        <item m="1" x="155"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="X3:AB21" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -20958,8 +22394,94 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="19"/>
+        <item m="1" x="13"/>
+        <item m="1" x="16"/>
+        <item m="1" x="7"/>
+        <item m="1" x="18"/>
+        <item m="1" x="10"/>
+        <item m="1" x="26"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="8"/>
+        <item m="1" x="28"/>
+        <item m="1" x="17"/>
+        <item m="1" x="25"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="24"/>
+        <item m="1" x="3"/>
+        <item m="1" x="11"/>
+        <item m="1" x="29"/>
+        <item m="1" x="22"/>
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item m="1" x="12"/>
+        <item m="1" x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="23"/>
+        <item m="1" x="27"/>
+        <item m="1" x="15"/>
+        <item m="1" x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:用户昵称" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -20983,6 +22505,298 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="198">
+        <item m="1" x="183"/>
+        <item m="1" x="196"/>
+        <item m="1" x="178"/>
+        <item m="1" x="191"/>
+        <item m="1" x="173"/>
+        <item m="1" x="186"/>
+        <item m="1" x="168"/>
+        <item m="1" x="181"/>
+        <item m="1" x="194"/>
+        <item m="1" x="176"/>
+        <item m="1" x="189"/>
+        <item m="1" x="171"/>
+        <item m="1" x="185"/>
+        <item m="1" x="167"/>
+        <item m="1" x="180"/>
+        <item m="1" x="193"/>
+        <item m="1" x="175"/>
+        <item m="1" x="188"/>
+        <item m="1" x="170"/>
+        <item x="165"/>
+        <item m="1" x="184"/>
+        <item m="1" x="166"/>
+        <item m="1" x="179"/>
+        <item m="1" x="192"/>
+        <item m="1" x="174"/>
+        <item m="1" x="187"/>
+        <item m="1" x="169"/>
+        <item m="1" x="182"/>
+        <item m="1" x="195"/>
+        <item m="1" x="177"/>
+        <item m="1" x="190"/>
+        <item m="1" x="172"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="127"/>
+        <item x="126"/>
+        <item x="125"/>
+        <item x="124"/>
+        <item x="123"/>
+        <item x="122"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
+    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
+    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2" numFmtId="2"/>
+    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3" numFmtId="2"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" m="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
       <items count="198">
         <item m="1" x="183"/>
         <item m="1" x="196"/>
@@ -21250,1084 +23064,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R6:S7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item h="1" m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="69">
-        <item m="1" x="52"/>
-        <item m="1" x="36"/>
-        <item m="1" x="17"/>
-        <item m="1" x="67"/>
-        <item m="1" x="49"/>
-        <item m="1" x="10"/>
-        <item m="1" x="61"/>
-        <item m="1" x="46"/>
-        <item m="1" x="15"/>
-        <item m="1" x="65"/>
-        <item m="1" x="50"/>
-        <item m="1" x="35"/>
-        <item m="1" x="13"/>
-        <item m="1" x="63"/>
-        <item m="1" x="48"/>
-        <item m="1" x="34"/>
-        <item m="1" x="12"/>
-        <item m="1" x="32"/>
-        <item m="1" x="59"/>
-        <item m="1" x="31"/>
-        <item m="1" x="6"/>
-        <item m="1" x="43"/>
-        <item m="1" x="27"/>
-        <item m="1" x="24"/>
-        <item m="1" x="22"/>
-        <item m="1" x="2"/>
-        <item m="1" x="55"/>
-        <item m="1" x="20"/>
-        <item m="1" x="37"/>
-        <item m="1" x="14"/>
-        <item m="1" x="64"/>
-        <item m="1" x="39"/>
-        <item m="1" x="54"/>
-        <item m="1" x="44"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="38"/>
-        <item m="1" x="18"/>
-        <item m="1" x="53"/>
-        <item m="1" x="16"/>
-        <item m="1" x="51"/>
-        <item m="1" x="19"/>
-        <item m="1" x="1"/>
-        <item m="1" x="33"/>
-        <item m="1" x="60"/>
-        <item m="1" x="45"/>
-        <item m="1" x="8"/>
-        <item m="1" x="47"/>
-        <item m="1" x="62"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
-        <item m="1" x="30"/>
-        <item m="1" x="7"/>
-        <item m="1" x="29"/>
-        <item m="1" x="42"/>
-        <item m="1" x="56"/>
-        <item m="1" x="25"/>
-        <item m="1" x="40"/>
-        <item m="1" x="57"/>
-        <item m="1" x="4"/>
-        <item m="1" x="28"/>
-        <item m="1" x="5"/>
-        <item m="1" x="58"/>
-        <item m="1" x="41"/>
-        <item m="1" x="26"/>
-        <item m="1" x="23"/>
-        <item m="1" x="21"/>
-        <item m="1" x="66"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="G1:K13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="368">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="12">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="10"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="4" count="1" selected="0">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
-        <item h="1" sd="0" x="2"/>
-        <item h="1" sd="0" x="3"/>
-        <item h="1" sd="0" x="4"/>
-        <item h="1" sd="0" x="5"/>
-        <item h="1" sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item h="1" sd="0" x="9"/>
-        <item h="1" sd="0" x="10"/>
-        <item h="1" sd="0" x="11"/>
-        <item h="1" sd="0" x="12"/>
-        <item h="1" sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colFields count="3">
-    <field x="4"/>
-    <field x="0"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i/>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i/>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="计数 / 分类" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="求和 / 价格" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I6:J7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="243">
-        <item m="1" x="7"/>
-        <item m="1" x="187"/>
-        <item m="1" x="128"/>
-        <item m="1" x="67"/>
-        <item m="1" x="184"/>
-        <item m="1" x="123"/>
-        <item m="1" x="62"/>
-        <item m="1" x="52"/>
-        <item m="1" x="46"/>
-        <item m="1" x="228"/>
-        <item m="1" x="102"/>
-        <item m="1" x="40"/>
-        <item m="1" x="162"/>
-        <item m="1" x="216"/>
-        <item m="1" x="156"/>
-        <item m="1" x="48"/>
-        <item m="1" x="230"/>
-        <item m="1" x="167"/>
-        <item m="1" x="104"/>
-        <item m="1" x="43"/>
-        <item m="1" x="224"/>
-        <item m="1" x="164"/>
-        <item m="1" x="100"/>
-        <item m="1" x="37"/>
-        <item m="1" x="219"/>
-        <item m="1" x="159"/>
-        <item m="1" x="96"/>
-        <item m="1" x="32"/>
-        <item m="1" x="212"/>
-        <item m="1" x="152"/>
-        <item m="1" x="90"/>
-        <item m="1" x="28"/>
-        <item m="1" x="87"/>
-        <item m="1" x="24"/>
-        <item m="1" x="203"/>
-        <item m="1" x="146"/>
-        <item m="1" x="22"/>
-        <item m="1" x="201"/>
-        <item m="1" x="142"/>
-        <item m="1" x="18"/>
-        <item m="1" x="198"/>
-        <item m="1" x="138"/>
-        <item m="1" x="78"/>
-        <item m="1" x="15"/>
-        <item m="1" x="195"/>
-        <item m="1" x="135"/>
-        <item m="1" x="73"/>
-        <item m="1" x="11"/>
-        <item m="1" x="190"/>
-        <item m="1" x="132"/>
-        <item m="1" x="69"/>
-        <item m="1" x="6"/>
-        <item m="1" x="186"/>
-        <item m="1" x="126"/>
-        <item m="1" x="65"/>
-        <item m="1" x="2"/>
-        <item m="1" x="182"/>
-        <item m="1" x="121"/>
-        <item m="1" x="61"/>
-        <item m="1" x="241"/>
-        <item m="1" x="177"/>
-        <item m="1" x="115"/>
-        <item m="1" x="57"/>
-        <item m="1" x="236"/>
-        <item m="1" x="172"/>
-        <item m="1" x="110"/>
-        <item m="1" x="50"/>
-        <item m="1" x="232"/>
-        <item m="1" x="168"/>
-        <item m="1" x="106"/>
-        <item m="1" x="44"/>
-        <item m="1" x="226"/>
-        <item m="1" x="165"/>
-        <item m="1" x="118"/>
-        <item m="1" x="59"/>
-        <item m="1" x="239"/>
-        <item m="1" x="174"/>
-        <item m="1" x="113"/>
-        <item m="1" x="54"/>
-        <item m="1" x="233"/>
-        <item m="1" x="170"/>
-        <item m="1" x="108"/>
-        <item m="1" x="47"/>
-        <item m="1" x="229"/>
-        <item m="1" x="166"/>
-        <item m="1" x="103"/>
-        <item m="1" x="42"/>
-        <item m="1" x="223"/>
-        <item m="1" x="99"/>
-        <item m="1" x="36"/>
-        <item m="1" x="218"/>
-        <item m="1" x="158"/>
-        <item m="1" x="95"/>
-        <item m="1" x="31"/>
-        <item m="1" x="211"/>
-        <item m="1" x="27"/>
-        <item m="1" x="206"/>
-        <item m="1" x="149"/>
-        <item m="1" x="160"/>
-        <item m="1" x="97"/>
-        <item m="1" x="34"/>
-        <item m="1" x="214"/>
-        <item m="1" x="154"/>
-        <item m="1" x="92"/>
-        <item m="1" x="29"/>
-        <item m="1" x="208"/>
-        <item m="1" x="150"/>
-        <item m="1" x="88"/>
-        <item m="1" x="25"/>
-        <item m="1" x="204"/>
-        <item m="1" x="147"/>
-        <item m="1" x="85"/>
-        <item m="1" x="144"/>
-        <item m="1" x="82"/>
-        <item m="1" x="20"/>
-        <item x="0"/>
-        <item m="1" x="140"/>
-        <item m="1" x="77"/>
-        <item m="1" x="14"/>
-        <item m="1" x="194"/>
-        <item m="1" x="134"/>
-        <item m="1" x="72"/>
-        <item m="1" x="10"/>
-        <item m="1" x="189"/>
-        <item m="1" x="131"/>
-        <item m="1" x="68"/>
-        <item m="1" x="200"/>
-        <item m="1" x="141"/>
-        <item m="1" x="80"/>
-        <item m="1" x="17"/>
-        <item m="1" x="197"/>
-        <item m="1" x="137"/>
-        <item m="1" x="75"/>
-        <item m="1" x="192"/>
-        <item m="1" x="70"/>
-        <item m="1" x="8"/>
-        <item m="1" x="188"/>
-        <item m="1" x="129"/>
-        <item m="1" x="4"/>
-        <item m="1" x="185"/>
-        <item m="1" x="124"/>
-        <item m="1" x="63"/>
-        <item m="1" x="1"/>
-        <item m="1" x="179"/>
-        <item m="1" x="117"/>
-        <item m="1" x="58"/>
-        <item m="1" x="238"/>
-        <item m="1" x="112"/>
-        <item m="1" x="53"/>
-        <item m="1" x="169"/>
-        <item m="1" x="105"/>
-        <item m="1" x="231"/>
-        <item m="1" x="49"/>
-        <item m="1" x="109"/>
-        <item m="1" x="235"/>
-        <item m="1" x="56"/>
-        <item m="1" x="114"/>
-        <item m="1" x="176"/>
-        <item m="1" x="120"/>
-        <item m="1" x="181"/>
-        <item m="1" x="33"/>
-        <item m="1" x="220"/>
-        <item m="1" x="38"/>
-        <item m="1" x="225"/>
-        <item m="1" x="213"/>
-        <item m="1" x="153"/>
-        <item m="1" x="91"/>
-        <item m="1" x="207"/>
-        <item m="1" x="41"/>
-        <item m="1" x="222"/>
-        <item m="1" x="163"/>
-        <item m="1" x="98"/>
-        <item m="1" x="217"/>
-        <item m="1" x="157"/>
-        <item m="1" x="94"/>
-        <item m="1" x="30"/>
-        <item m="1" x="26"/>
-        <item m="1" x="89"/>
-        <item m="1" x="151"/>
-        <item m="1" x="210"/>
-        <item m="1" x="205"/>
-        <item m="1" x="148"/>
-        <item m="1" x="86"/>
-        <item m="1" x="23"/>
-        <item m="1" x="145"/>
-        <item m="1" x="83"/>
-        <item m="1" x="21"/>
-        <item m="1" x="199"/>
-        <item m="1" x="79"/>
-        <item m="1" x="16"/>
-        <item m="1" x="196"/>
-        <item m="1" x="136"/>
-        <item m="1" x="74"/>
-        <item m="1" x="12"/>
-        <item m="1" x="191"/>
-        <item m="1" x="143"/>
-        <item m="1" x="202"/>
-        <item m="1" x="84"/>
-        <item m="1" x="81"/>
-        <item m="1" x="19"/>
-        <item m="1" x="139"/>
-        <item m="1" x="76"/>
-        <item m="1" x="13"/>
-        <item m="1" x="193"/>
-        <item m="1" x="133"/>
-        <item m="1" x="71"/>
-        <item m="1" x="9"/>
-        <item m="1" x="130"/>
-        <item m="1" x="5"/>
-        <item m="1" x="125"/>
-        <item m="1" x="64"/>
-        <item m="1" x="180"/>
-        <item m="1" x="119"/>
-        <item m="1" x="60"/>
-        <item m="1" x="240"/>
-        <item m="1" x="175"/>
-        <item m="1" x="55"/>
-        <item m="1" x="234"/>
-        <item m="1" x="171"/>
-        <item m="1" x="127"/>
-        <item m="1" x="66"/>
-        <item m="1" x="3"/>
-        <item m="1" x="183"/>
-        <item m="1" x="122"/>
-        <item m="1" x="178"/>
-        <item m="1" x="116"/>
-        <item m="1" x="237"/>
-        <item m="1" x="173"/>
-        <item m="1" x="111"/>
-        <item m="1" x="51"/>
-        <item m="1" x="107"/>
-        <item m="1" x="45"/>
-        <item m="1" x="227"/>
-        <item m="1" x="101"/>
-        <item m="1" x="39"/>
-        <item m="1" x="221"/>
-        <item m="1" x="35"/>
-        <item m="1" x="161"/>
-        <item m="1" x="209"/>
-        <item m="1" x="93"/>
-        <item m="1" x="215"/>
-        <item m="1" x="155"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item m="1" x="6"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表15" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:B24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="25">
-        <item m="1" x="3"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="4"/>
-        <item m="1" x="9"/>
-        <item m="1" x="14"/>
-        <item m="1" x="8"/>
-        <item m="1" x="15"/>
-        <item m="1" x="19"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="23"/>
-        <item m="1" x="20"/>
-        <item m="1" x="18"/>
-        <item m="1" x="6"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item m="1" x="13"/>
-        <item m="1" x="17"/>
-        <item m="1" x="7"/>
-        <item m="1" x="11"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand"/>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand"/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:顾客标签" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U16:U17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
@@ -22342,12 +23081,12 @@
         <item h="1" m="1" x="5"/>
         <item h="1" m="1" x="1"/>
         <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="32">
         <item x="0"/>
         <item m="1" x="5"/>
@@ -22406,808 +23145,6 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="计数项:用户昵称" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" m="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="198">
-        <item m="1" x="183"/>
-        <item m="1" x="196"/>
-        <item m="1" x="178"/>
-        <item m="1" x="191"/>
-        <item m="1" x="173"/>
-        <item m="1" x="186"/>
-        <item m="1" x="168"/>
-        <item m="1" x="181"/>
-        <item m="1" x="194"/>
-        <item m="1" x="176"/>
-        <item m="1" x="189"/>
-        <item m="1" x="171"/>
-        <item m="1" x="185"/>
-        <item m="1" x="167"/>
-        <item m="1" x="180"/>
-        <item m="1" x="193"/>
-        <item m="1" x="175"/>
-        <item m="1" x="188"/>
-        <item m="1" x="170"/>
-        <item x="165"/>
-        <item m="1" x="184"/>
-        <item m="1" x="166"/>
-        <item m="1" x="179"/>
-        <item m="1" x="192"/>
-        <item m="1" x="174"/>
-        <item m="1" x="187"/>
-        <item m="1" x="169"/>
-        <item m="1" x="182"/>
-        <item m="1" x="195"/>
-        <item m="1" x="177"/>
-        <item m="1" x="190"/>
-        <item m="1" x="172"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="75"/>
-        <item x="74"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="127"/>
-        <item x="126"/>
-        <item x="125"/>
-        <item x="124"/>
-        <item x="123"/>
-        <item x="122"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
-    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
-    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2" numFmtId="2"/>
-    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3" numFmtId="2"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F16:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item h="1" m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O6:P7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="69">
-        <item m="1" x="52"/>
-        <item m="1" x="36"/>
-        <item m="1" x="17"/>
-        <item m="1" x="67"/>
-        <item m="1" x="49"/>
-        <item m="1" x="10"/>
-        <item m="1" x="61"/>
-        <item m="1" x="46"/>
-        <item m="1" x="15"/>
-        <item m="1" x="65"/>
-        <item m="1" x="50"/>
-        <item m="1" x="35"/>
-        <item m="1" x="13"/>
-        <item m="1" x="63"/>
-        <item m="1" x="48"/>
-        <item m="1" x="34"/>
-        <item m="1" x="12"/>
-        <item m="1" x="32"/>
-        <item m="1" x="59"/>
-        <item m="1" x="31"/>
-        <item m="1" x="6"/>
-        <item m="1" x="43"/>
-        <item m="1" x="27"/>
-        <item m="1" x="24"/>
-        <item m="1" x="22"/>
-        <item m="1" x="2"/>
-        <item m="1" x="55"/>
-        <item m="1" x="20"/>
-        <item m="1" x="37"/>
-        <item m="1" x="14"/>
-        <item m="1" x="64"/>
-        <item m="1" x="39"/>
-        <item m="1" x="54"/>
-        <item m="1" x="44"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="38"/>
-        <item m="1" x="18"/>
-        <item m="1" x="53"/>
-        <item m="1" x="16"/>
-        <item m="1" x="51"/>
-        <item m="1" x="19"/>
-        <item m="1" x="1"/>
-        <item m="1" x="33"/>
-        <item m="1" x="60"/>
-        <item m="1" x="45"/>
-        <item m="1" x="8"/>
-        <item m="1" x="47"/>
-        <item m="1" x="62"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
-        <item m="1" x="30"/>
-        <item m="1" x="7"/>
-        <item m="1" x="29"/>
-        <item m="1" x="42"/>
-        <item m="1" x="56"/>
-        <item m="1" x="25"/>
-        <item m="1" x="40"/>
-        <item m="1" x="57"/>
-        <item m="1" x="4"/>
-        <item m="1" x="28"/>
-        <item m="1" x="5"/>
-        <item m="1" x="58"/>
-        <item m="1" x="41"/>
-        <item m="1" x="26"/>
-        <item m="1" x="23"/>
-        <item m="1" x="21"/>
-        <item m="1" x="66"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L6:M7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item h="1" m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="243">
-        <item m="1" x="7"/>
-        <item m="1" x="187"/>
-        <item m="1" x="128"/>
-        <item m="1" x="67"/>
-        <item m="1" x="184"/>
-        <item m="1" x="123"/>
-        <item m="1" x="62"/>
-        <item m="1" x="52"/>
-        <item m="1" x="46"/>
-        <item m="1" x="228"/>
-        <item m="1" x="102"/>
-        <item m="1" x="40"/>
-        <item m="1" x="162"/>
-        <item m="1" x="216"/>
-        <item m="1" x="156"/>
-        <item m="1" x="48"/>
-        <item m="1" x="230"/>
-        <item m="1" x="167"/>
-        <item m="1" x="104"/>
-        <item m="1" x="43"/>
-        <item m="1" x="224"/>
-        <item m="1" x="164"/>
-        <item m="1" x="100"/>
-        <item m="1" x="37"/>
-        <item m="1" x="219"/>
-        <item m="1" x="159"/>
-        <item m="1" x="96"/>
-        <item m="1" x="32"/>
-        <item m="1" x="212"/>
-        <item m="1" x="152"/>
-        <item m="1" x="90"/>
-        <item m="1" x="28"/>
-        <item m="1" x="87"/>
-        <item m="1" x="24"/>
-        <item m="1" x="203"/>
-        <item m="1" x="146"/>
-        <item m="1" x="22"/>
-        <item m="1" x="201"/>
-        <item m="1" x="142"/>
-        <item m="1" x="18"/>
-        <item m="1" x="198"/>
-        <item m="1" x="138"/>
-        <item m="1" x="78"/>
-        <item m="1" x="15"/>
-        <item m="1" x="195"/>
-        <item m="1" x="135"/>
-        <item m="1" x="73"/>
-        <item m="1" x="11"/>
-        <item m="1" x="190"/>
-        <item m="1" x="132"/>
-        <item m="1" x="69"/>
-        <item m="1" x="6"/>
-        <item m="1" x="186"/>
-        <item m="1" x="126"/>
-        <item m="1" x="65"/>
-        <item m="1" x="2"/>
-        <item m="1" x="182"/>
-        <item m="1" x="121"/>
-        <item m="1" x="61"/>
-        <item m="1" x="241"/>
-        <item m="1" x="177"/>
-        <item m="1" x="115"/>
-        <item m="1" x="57"/>
-        <item m="1" x="236"/>
-        <item m="1" x="172"/>
-        <item m="1" x="110"/>
-        <item m="1" x="50"/>
-        <item m="1" x="232"/>
-        <item m="1" x="168"/>
-        <item m="1" x="106"/>
-        <item m="1" x="44"/>
-        <item m="1" x="226"/>
-        <item m="1" x="165"/>
-        <item m="1" x="118"/>
-        <item m="1" x="59"/>
-        <item m="1" x="239"/>
-        <item m="1" x="174"/>
-        <item m="1" x="113"/>
-        <item m="1" x="54"/>
-        <item m="1" x="233"/>
-        <item m="1" x="170"/>
-        <item m="1" x="108"/>
-        <item m="1" x="47"/>
-        <item m="1" x="229"/>
-        <item m="1" x="166"/>
-        <item m="1" x="103"/>
-        <item m="1" x="42"/>
-        <item m="1" x="223"/>
-        <item m="1" x="99"/>
-        <item m="1" x="36"/>
-        <item m="1" x="218"/>
-        <item m="1" x="158"/>
-        <item m="1" x="95"/>
-        <item m="1" x="31"/>
-        <item m="1" x="211"/>
-        <item m="1" x="27"/>
-        <item m="1" x="206"/>
-        <item m="1" x="149"/>
-        <item m="1" x="160"/>
-        <item m="1" x="97"/>
-        <item m="1" x="34"/>
-        <item m="1" x="214"/>
-        <item m="1" x="154"/>
-        <item m="1" x="92"/>
-        <item m="1" x="29"/>
-        <item m="1" x="208"/>
-        <item m="1" x="150"/>
-        <item m="1" x="88"/>
-        <item m="1" x="25"/>
-        <item m="1" x="204"/>
-        <item m="1" x="147"/>
-        <item m="1" x="85"/>
-        <item m="1" x="144"/>
-        <item m="1" x="82"/>
-        <item m="1" x="20"/>
-        <item x="0"/>
-        <item m="1" x="140"/>
-        <item m="1" x="77"/>
-        <item m="1" x="14"/>
-        <item m="1" x="194"/>
-        <item m="1" x="134"/>
-        <item m="1" x="72"/>
-        <item m="1" x="10"/>
-        <item m="1" x="189"/>
-        <item m="1" x="131"/>
-        <item m="1" x="68"/>
-        <item m="1" x="200"/>
-        <item m="1" x="141"/>
-        <item m="1" x="80"/>
-        <item m="1" x="17"/>
-        <item m="1" x="197"/>
-        <item m="1" x="137"/>
-        <item m="1" x="75"/>
-        <item m="1" x="192"/>
-        <item m="1" x="70"/>
-        <item m="1" x="8"/>
-        <item m="1" x="188"/>
-        <item m="1" x="129"/>
-        <item m="1" x="4"/>
-        <item m="1" x="185"/>
-        <item m="1" x="124"/>
-        <item m="1" x="63"/>
-        <item m="1" x="1"/>
-        <item m="1" x="179"/>
-        <item m="1" x="117"/>
-        <item m="1" x="58"/>
-        <item m="1" x="238"/>
-        <item m="1" x="112"/>
-        <item m="1" x="53"/>
-        <item m="1" x="169"/>
-        <item m="1" x="105"/>
-        <item m="1" x="231"/>
-        <item m="1" x="49"/>
-        <item m="1" x="109"/>
-        <item m="1" x="235"/>
-        <item m="1" x="56"/>
-        <item m="1" x="114"/>
-        <item m="1" x="176"/>
-        <item m="1" x="120"/>
-        <item m="1" x="181"/>
-        <item m="1" x="33"/>
-        <item m="1" x="220"/>
-        <item m="1" x="38"/>
-        <item m="1" x="225"/>
-        <item m="1" x="213"/>
-        <item m="1" x="153"/>
-        <item m="1" x="91"/>
-        <item m="1" x="207"/>
-        <item m="1" x="41"/>
-        <item m="1" x="222"/>
-        <item m="1" x="163"/>
-        <item m="1" x="98"/>
-        <item m="1" x="217"/>
-        <item m="1" x="157"/>
-        <item m="1" x="94"/>
-        <item m="1" x="30"/>
-        <item m="1" x="26"/>
-        <item m="1" x="89"/>
-        <item m="1" x="151"/>
-        <item m="1" x="210"/>
-        <item m="1" x="205"/>
-        <item m="1" x="148"/>
-        <item m="1" x="86"/>
-        <item m="1" x="23"/>
-        <item m="1" x="145"/>
-        <item m="1" x="83"/>
-        <item m="1" x="21"/>
-        <item m="1" x="199"/>
-        <item m="1" x="79"/>
-        <item m="1" x="16"/>
-        <item m="1" x="196"/>
-        <item m="1" x="136"/>
-        <item m="1" x="74"/>
-        <item m="1" x="12"/>
-        <item m="1" x="191"/>
-        <item m="1" x="143"/>
-        <item m="1" x="202"/>
-        <item m="1" x="84"/>
-        <item m="1" x="81"/>
-        <item m="1" x="19"/>
-        <item m="1" x="139"/>
-        <item m="1" x="76"/>
-        <item m="1" x="13"/>
-        <item m="1" x="193"/>
-        <item m="1" x="133"/>
-        <item m="1" x="71"/>
-        <item m="1" x="9"/>
-        <item m="1" x="130"/>
-        <item m="1" x="5"/>
-        <item m="1" x="125"/>
-        <item m="1" x="64"/>
-        <item m="1" x="180"/>
-        <item m="1" x="119"/>
-        <item m="1" x="60"/>
-        <item m="1" x="240"/>
-        <item m="1" x="175"/>
-        <item m="1" x="55"/>
-        <item m="1" x="234"/>
-        <item m="1" x="171"/>
-        <item m="1" x="127"/>
-        <item m="1" x="66"/>
-        <item m="1" x="3"/>
-        <item m="1" x="183"/>
-        <item m="1" x="122"/>
-        <item m="1" x="178"/>
-        <item m="1" x="116"/>
-        <item m="1" x="237"/>
-        <item m="1" x="173"/>
-        <item m="1" x="111"/>
-        <item m="1" x="51"/>
-        <item m="1" x="107"/>
-        <item m="1" x="45"/>
-        <item m="1" x="227"/>
-        <item m="1" x="101"/>
-        <item m="1" x="39"/>
-        <item m="1" x="221"/>
-        <item m="1" x="35"/>
-        <item m="1" x="161"/>
-        <item m="1" x="209"/>
-        <item m="1" x="93"/>
-        <item m="1" x="215"/>
-        <item m="1" x="155"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item m="1" x="6"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -23528,10 +23465,10 @@
       <c r="C1" s="61"/>
     </row>
     <row r="2" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="151"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="92" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -23552,7 +23489,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="165" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="86" t="s">
@@ -23579,7 +23516,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B4" s="151"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="86" t="s">
         <v>6</v>
       </c>
@@ -23604,7 +23541,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B5" s="151"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
@@ -23629,7 +23566,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B6" s="151"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="86" t="s">
         <v>8</v>
       </c>
@@ -23654,7 +23591,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="165" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="86" t="s">
@@ -23679,7 +23616,7 @@
       <c r="H7" s="140"/>
     </row>
     <row r="8" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B8" s="151"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="86" t="s">
         <v>11</v>
       </c>
@@ -23704,7 +23641,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B9" s="151"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="89" t="s">
         <v>12</v>
       </c>
@@ -23725,7 +23662,7 @@
       <c r="H9" s="140"/>
     </row>
     <row r="10" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B10" s="151"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="86" t="s">
         <v>13</v>
       </c>
@@ -23750,7 +23687,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B11" s="151"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="89" t="s">
         <v>15</v>
       </c>
@@ -23771,7 +23708,7 @@
       <c r="H11" s="140"/>
     </row>
     <row r="12" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B12" s="151"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="86" t="s">
         <v>16</v>
       </c>
@@ -23796,7 +23733,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="165" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="89" t="s">
@@ -23817,10 +23754,10 @@
         <v>重点关注</v>
       </c>
       <c r="H13" s="140"/>
-      <c r="I13" s="150"/>
+      <c r="I13" s="161"/>
     </row>
     <row r="14" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B14" s="151"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="89" t="s">
         <v>20</v>
       </c>
@@ -23839,10 +23776,10 @@
         <v>优</v>
       </c>
       <c r="H14" s="140"/>
-      <c r="I14" s="151"/>
+      <c r="I14" s="162"/>
     </row>
     <row r="15" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B15" s="151"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="86" t="s">
         <v>21</v>
       </c>
@@ -23863,10 +23800,10 @@
         <v>重点关注</v>
       </c>
       <c r="H15" s="140"/>
-      <c r="I15" s="151"/>
+      <c r="I15" s="162"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="165" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="86" t="s">
@@ -23893,7 +23830,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="26.25" customHeight="1">
-      <c r="B17" s="151"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="86" t="s">
         <v>24</v>
       </c>
@@ -23918,15 +23855,15 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="80.099999999999994" customHeight="1">
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
     </row>
     <row r="19" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="19.5" customHeight="1"/>
@@ -38533,22 +38470,22 @@
         <v>1543</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>1574</v>
+        <v>1553</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>1576</v>
+        <v>1555</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
@@ -38559,25 +38496,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>1578</v>
+        <v>1557</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="H3" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1">
@@ -38588,23 +38525,23 @@
         <v>9</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>156</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="52" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1">
@@ -38615,25 +38552,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="H5" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
@@ -38644,25 +38581,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
@@ -38673,25 +38610,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>1591</v>
+        <v>1570</v>
       </c>
       <c r="H7" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
@@ -38702,23 +38639,23 @@
         <v>9</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>153</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="52" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
@@ -38729,23 +38666,23 @@
         <v>9</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="52" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
@@ -38756,23 +38693,23 @@
         <v>9</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>156</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="52" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
@@ -38783,25 +38720,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="H11" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
@@ -38812,25 +38749,25 @@
         <v>9</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
@@ -38841,25 +38778,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="H13" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
@@ -38870,25 +38807,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>1610</v>
+        <v>1589</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>1612</v>
+        <v>1591</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
@@ -38899,25 +38836,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>1615</v>
+        <v>1594</v>
       </c>
       <c r="H15" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
@@ -38928,23 +38865,23 @@
         <v>8</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>1618</v>
+        <v>1597</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>156</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="52" t="s">
-        <v>1619</v>
+        <v>1598</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1">
@@ -38955,25 +38892,25 @@
         <v>8</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>1620</v>
+        <v>1599</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1">
@@ -38984,25 +38921,25 @@
         <v>8</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>1622</v>
+        <v>1601</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="H18" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1">
@@ -39013,25 +38950,25 @@
         <v>8</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>1622</v>
+        <v>1601</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="H19" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1">
@@ -39042,25 +38979,25 @@
         <v>8</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>1626</v>
+        <v>1605</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>1627</v>
+        <v>1606</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="H20" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1">
@@ -39071,25 +39008,25 @@
         <v>8</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>1631</v>
+        <v>1610</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1">
@@ -39100,25 +39037,25 @@
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>1633</v>
+        <v>1612</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>1634</v>
+        <v>1613</v>
       </c>
       <c r="H22" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
@@ -39129,25 +39066,25 @@
         <v>8</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>1635</v>
+        <v>1614</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="H23" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1">
@@ -39158,25 +39095,25 @@
         <v>8</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="H24" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1">
@@ -39187,25 +39124,25 @@
         <v>8</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>1639</v>
+        <v>1618</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="H25" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
@@ -39216,25 +39153,25 @@
         <v>8</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>1642</v>
+        <v>1621</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="H26" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
@@ -39245,25 +39182,25 @@
         <v>8</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>1643</v>
+        <v>1622</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1">
@@ -39274,25 +39211,25 @@
         <v>8</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>1645</v>
+        <v>1624</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="H28" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1">
@@ -39303,25 +39240,25 @@
         <v>8</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>1648</v>
+        <v>1627</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1">
@@ -39332,25 +39269,25 @@
         <v>8</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>1650</v>
+        <v>1629</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="H30" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I30" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
@@ -39361,25 +39298,25 @@
         <v>8</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>1653</v>
+        <v>1632</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>1654</v>
+        <v>1633</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
@@ -39390,25 +39327,25 @@
         <v>8</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>1655</v>
+        <v>1634</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="H32" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
@@ -39419,25 +39356,25 @@
         <v>8</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="H33" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1">
@@ -39448,25 +39385,25 @@
         <v>8</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>1660</v>
+        <v>1639</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="H34" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I34" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1">
@@ -39477,25 +39414,25 @@
         <v>8</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="E35" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="H35" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
@@ -39506,25 +39443,25 @@
         <v>8</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>1664</v>
+        <v>1643</v>
       </c>
       <c r="H36" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
@@ -39535,25 +39472,25 @@
         <v>8</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="H37" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
@@ -39564,25 +39501,25 @@
         <v>8</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F38" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="H38" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I38" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1">
@@ -39593,25 +39530,25 @@
         <v>8</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>1669</v>
+        <v>1648</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="H39" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I39" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
@@ -39622,25 +39559,25 @@
         <v>8</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>1672</v>
+        <v>1651</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="H40" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I40" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1">
@@ -39651,25 +39588,25 @@
         <v>8</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="H41" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I41" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1">
@@ -39680,25 +39617,25 @@
         <v>8</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="E42" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="H42" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I42" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1">
@@ -39709,25 +39646,25 @@
         <v>8</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="E43" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="H43" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I43" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
@@ -39738,25 +39675,25 @@
         <v>8</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>1562</v>
+        <v>1545</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F44" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G44" s="52" t="s">
-        <v>1612</v>
+        <v>1591</v>
       </c>
       <c r="H44" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I44" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1">
@@ -39767,25 +39704,25 @@
         <v>8</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="E45" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>1683</v>
+        <v>1662</v>
       </c>
       <c r="H45" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I45" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
@@ -39796,25 +39733,25 @@
         <v>8</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="D46" s="53" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="E46" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="H46" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I46" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1">
@@ -39825,25 +39762,25 @@
         <v>8</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="H47" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I47" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1">
@@ -39854,25 +39791,25 @@
         <v>8</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="H48" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I48" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1">
@@ -39883,25 +39820,25 @@
         <v>8</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>1693</v>
+        <v>1672</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="H49" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I49" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
@@ -39912,25 +39849,25 @@
         <v>8</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G50" s="52" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="H50" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
@@ -39941,25 +39878,25 @@
         <v>8</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="E51" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="H51" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
@@ -39970,25 +39907,25 @@
         <v>8</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="E52" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G52" s="52" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="H52" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I52" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1">
@@ -39999,25 +39936,25 @@
         <v>8</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="E53" s="52" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="G53" s="52" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1">
@@ -40028,25 +39965,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="E54" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F54" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G54" s="52" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="H54" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I54" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1">
@@ -40057,25 +39994,25 @@
         <v>8</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="H55" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1">
@@ -40086,25 +40023,25 @@
         <v>8</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="H56" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I56" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1">
@@ -40115,25 +40052,25 @@
         <v>8</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F57" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="H57" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I57" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
@@ -40144,25 +40081,25 @@
         <v>8</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="H58" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I58" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" customHeight="1">
@@ -40173,25 +40110,25 @@
         <v>8</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="H59" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1">
@@ -40202,25 +40139,25 @@
         <v>8</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="E60" s="52" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H60" s="55" t="s">
         <v>1703</v>
       </c>
-      <c r="G60" s="52" t="s">
-        <v>1723</v>
-      </c>
-      <c r="H60" s="55" t="s">
-        <v>1724</v>
-      </c>
       <c r="I60" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1">
@@ -40231,25 +40168,25 @@
         <v>8</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F61" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G61" s="52" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="H61" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I61" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1">
@@ -40260,25 +40197,25 @@
         <v>8</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>1729</v>
+        <v>1708</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F62" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G62" s="52" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="H62" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I62" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" customHeight="1">
@@ -40289,25 +40226,25 @@
         <v>8</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="E63" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="H63" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I63" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1">
@@ -40318,25 +40255,25 @@
         <v>8</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>1732</v>
+        <v>1711</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="52" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="G64" s="52" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="I64" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" customHeight="1">
@@ -40347,25 +40284,25 @@
         <v>8</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>1735</v>
+        <v>1714</v>
       </c>
       <c r="E65" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F65" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>1736</v>
+        <v>1715</v>
       </c>
       <c r="H65" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I65" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" customHeight="1">
@@ -40376,25 +40313,25 @@
         <v>8</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>1737</v>
+        <v>1716</v>
       </c>
       <c r="E66" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F66" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G66" s="52" t="s">
-        <v>1738</v>
+        <v>1717</v>
       </c>
       <c r="H66" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I66" s="52" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" customHeight="1">
@@ -40405,25 +40342,25 @@
         <v>8</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>1739</v>
+        <v>1718</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G67" s="52" t="s">
-        <v>1740</v>
+        <v>1719</v>
       </c>
       <c r="H67" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I67" s="52" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" customHeight="1">
@@ -40434,25 +40371,25 @@
         <v>8</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>1741</v>
+        <v>1720</v>
       </c>
       <c r="E68" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F68" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G68" s="52" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="H68" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I68" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" customHeight="1">
@@ -40463,25 +40400,25 @@
         <v>8</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>1743</v>
+        <v>1722</v>
       </c>
       <c r="E69" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F69" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G69" s="52" t="s">
-        <v>1744</v>
+        <v>1723</v>
       </c>
       <c r="H69" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I69" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" customHeight="1">
@@ -40492,25 +40429,25 @@
         <v>8</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>1745</v>
+        <v>1724</v>
       </c>
       <c r="E70" s="52" t="s">
         <v>149</v>
       </c>
       <c r="F70" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G70" s="52" t="s">
-        <v>1746</v>
+        <v>1725</v>
       </c>
       <c r="H70" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I70" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1">
@@ -40521,23 +40458,23 @@
         <v>8</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>1747</v>
+        <v>1726</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>156</v>
       </c>
       <c r="F71" s="52"/>
       <c r="G71" s="52" t="s">
-        <v>1746</v>
+        <v>1725</v>
       </c>
       <c r="H71" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
@@ -40548,25 +40485,25 @@
         <v>8</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>1748</v>
+        <v>1727</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>151</v>
       </c>
       <c r="F72" s="52" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="G72" s="52" t="s">
-        <v>1746</v>
+        <v>1725</v>
       </c>
       <c r="H72" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I72" s="52" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" customHeight="1">
@@ -51104,8 +51041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -51171,239 +51108,89 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="40">
-        <v>9</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" s="52">
-        <v>5</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J2" s="52">
-        <v>5</v>
-      </c>
-      <c r="K2" s="52">
-        <v>5</v>
-      </c>
-      <c r="L2" s="52">
-        <v>5</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>1547</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O2" s="52" t="s">
-        <v>1549</v>
-      </c>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="40">
-        <v>9</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="52">
-        <v>5</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J3" s="52">
-        <v>5</v>
-      </c>
-      <c r="K3" s="52">
-        <v>5</v>
-      </c>
-      <c r="L3" s="52">
-        <v>5</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>1551</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O3" s="52" t="s">
-        <v>1552</v>
-      </c>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="40">
-        <v>9</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1554</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="52">
-        <v>5</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J4" s="52">
-        <v>5</v>
-      </c>
-      <c r="K4" s="52">
-        <v>5</v>
-      </c>
-      <c r="L4" s="52">
-        <v>5</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>1555</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>1556</v>
-      </c>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="40">
-        <v>9</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>1559</v>
-      </c>
-      <c r="H5" s="52">
-        <v>5</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J5" s="52">
-        <v>5</v>
-      </c>
-      <c r="K5" s="52">
-        <v>5</v>
-      </c>
-      <c r="L5" s="52">
-        <v>5</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>1560</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>1561</v>
-      </c>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="40">
-        <v>8</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>1564</v>
-      </c>
-      <c r="H6" s="52">
-        <v>5</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J6" s="52">
-        <v>5</v>
-      </c>
-      <c r="K6" s="52">
-        <v>5</v>
-      </c>
-      <c r="L6" s="52">
-        <v>5</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>1565</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O6" s="52" t="s">
-        <v>1566</v>
-      </c>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="40"/>
@@ -51960,7 +51747,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -52030,239 +51817,89 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="40">
-        <v>9</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" s="52">
-        <v>5</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J2" s="55">
-        <v>5</v>
-      </c>
-      <c r="K2" s="52">
-        <v>5</v>
-      </c>
-      <c r="L2" s="52">
-        <v>5</v>
-      </c>
-      <c r="M2" s="128" t="s">
-        <v>1547</v>
-      </c>
-      <c r="N2" s="128" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O2" s="128" t="s">
-        <v>1549</v>
-      </c>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="40">
-        <v>9</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="52">
-        <v>5</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J3" s="55">
-        <v>5</v>
-      </c>
-      <c r="K3" s="52">
-        <v>5</v>
-      </c>
-      <c r="L3" s="52">
-        <v>5</v>
-      </c>
-      <c r="M3" s="128" t="s">
-        <v>1551</v>
-      </c>
-      <c r="N3" s="128" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O3" s="128" t="s">
-        <v>1552</v>
-      </c>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="40">
-        <v>9</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1554</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="52">
-        <v>5</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J4" s="55">
-        <v>5</v>
-      </c>
-      <c r="K4" s="52">
-        <v>5</v>
-      </c>
-      <c r="L4" s="52">
-        <v>5</v>
-      </c>
-      <c r="M4" s="128" t="s">
-        <v>1555</v>
-      </c>
-      <c r="N4" s="128" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O4" s="128" t="s">
-        <v>1556</v>
-      </c>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="40">
-        <v>9</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>1559</v>
-      </c>
-      <c r="H5" s="52">
-        <v>5</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J5" s="55">
-        <v>5</v>
-      </c>
-      <c r="K5" s="52">
-        <v>5</v>
-      </c>
-      <c r="L5" s="52">
-        <v>5</v>
-      </c>
-      <c r="M5" s="128" t="s">
-        <v>1560</v>
-      </c>
-      <c r="N5" s="128" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O5" s="128" t="s">
-        <v>1561</v>
-      </c>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="40">
-        <v>8</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>1564</v>
-      </c>
-      <c r="H6" s="52">
-        <v>5</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J6" s="55">
-        <v>5</v>
-      </c>
-      <c r="K6" s="52">
-        <v>5</v>
-      </c>
-      <c r="L6" s="52">
-        <v>5</v>
-      </c>
-      <c r="M6" s="128" t="s">
-        <v>1565</v>
-      </c>
-      <c r="N6" s="128" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O6" s="128" t="s">
-        <v>1566</v>
-      </c>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="40"/>
@@ -52801,10 +52438,10 @@
         <v>125</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>106</v>
@@ -52822,19 +52459,19 @@
         <v>110</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>1571</v>
+        <v>1550</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1572</v>
+        <v>1551</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -55810,7 +55447,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55845,27 +55482,27 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157" t="s">
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157" t="s">
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
     </row>
     <row r="4" spans="2:11" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B4" s="156"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="30" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -56041,18 +55678,18 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="27.95" customHeight="1">
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -56118,7 +55755,7 @@
       <c r="C1" s="32"/>
     </row>
     <row r="2" spans="2:11" ht="24" customHeight="1">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="170" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="81" t="s">
@@ -56153,7 +55790,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B3" s="156"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="80" t="s">
         <v>10</v>
       </c>
@@ -56184,7 +55821,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B4" s="156"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="93" t="s">
         <v>12</v>
       </c>
@@ -56215,7 +55852,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B5" s="156"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="86" t="s">
         <v>13</v>
       </c>
@@ -56246,7 +55883,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="171" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="86" t="s">
@@ -56279,7 +55916,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B7" s="156"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="86" t="s">
         <v>48</v>
       </c>
@@ -56310,7 +55947,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B8" s="156"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="86" t="s">
         <v>50</v>
       </c>
@@ -56341,7 +55978,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="172" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="86" t="s">
@@ -56374,7 +56011,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B10" s="156"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="86" t="s">
         <v>54</v>
       </c>
@@ -56405,7 +56042,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B11" s="156"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="86" t="s">
         <v>56</v>
       </c>
@@ -56467,13 +56104,13 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
       <c r="H13" s="76" t="s">
         <v>61</v>
       </c>
@@ -56489,11 +56126,11 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="21.95" customHeight="1">
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
       <c r="H14" s="76" t="s">
         <v>62</v>
       </c>
@@ -56507,11 +56144,11 @@
       <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11" ht="24" customHeight="1">
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
       <c r="H15" s="76" t="s">
         <v>63</v>
       </c>
@@ -56713,22 +56350,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="162" t="s">
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
     </row>
     <row r="3" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B3" s="163"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="135" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -57094,15 +56731,15 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="71.25" customHeight="1">
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -57150,22 +56787,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="165" t="s">
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B3" s="166"/>
+      <c r="B3" s="177"/>
       <c r="C3" s="135" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -57385,15 +57022,15 @@
       </c>
     </row>
     <row r="13" spans="2:8" s="138" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -57459,62 +57096,62 @@
       <c r="B1" s="28"/>
     </row>
     <row r="2" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="176" t="s">
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B3" s="173"/>
-      <c r="C3" s="177">
+      <c r="B3" s="180"/>
+      <c r="C3" s="157">
         <f>midtable!F2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D3" s="157">
         <f>midtable!F3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="G3" s="177" t="str">
+      <c r="G3" s="157" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
       </c>
-      <c r="H3" s="177" t="str">
+      <c r="H3" s="157" t="str">
         <f>透视表!$J$30</f>
         <v>7月</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="177" t="str">
+      <c r="J3" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="K3" s="177" t="str">
+      <c r="K3" s="157" t="str">
         <f>透视表!$J$29&amp;"占比"</f>
         <v>8月占比</v>
       </c>
-      <c r="L3" s="177" t="str">
+      <c r="L3" s="157" t="str">
         <f>透视表!$J$30&amp;"占比"</f>
         <v>7月占比</v>
       </c>
@@ -57565,85 +57202,85 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B5" s="178"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="2:17" ht="24" customHeight="1">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="176" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="176" t="s">
-        <v>1756</v>
-      </c>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
+      <c r="C6" s="179" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="179" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
     </row>
     <row r="7" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B7" s="173"/>
-      <c r="C7" s="177" t="str">
+      <c r="B7" s="180"/>
+      <c r="C7" s="157" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
       </c>
-      <c r="D7" s="177" t="str">
+      <c r="D7" s="157" t="str">
         <f>透视表!$J$30</f>
         <v>7月</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="177" t="str">
+      <c r="F7" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="G7" s="177" t="str">
+      <c r="G7" s="157" t="str">
         <f>透视表!$J$29&amp;"占比"</f>
         <v>8月占比</v>
       </c>
-      <c r="H7" s="177" t="str">
+      <c r="H7" s="157" t="str">
         <f>透视表!$J$30&amp;"占比"</f>
         <v>7月占比</v>
       </c>
-      <c r="I7" s="177" t="str">
+      <c r="I7" s="157" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
       </c>
-      <c r="J7" s="177" t="str">
+      <c r="J7" s="157" t="str">
         <f>透视表!$J$30</f>
         <v>7月</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="K7" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="177" t="str">
+      <c r="L7" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="M7" s="177" t="str">
+      <c r="M7" s="157" t="str">
         <f>透视表!$J$29&amp;"占比"</f>
         <v>8月占比</v>
       </c>
-      <c r="N7" s="177" t="str">
+      <c r="N7" s="157" t="str">
         <f>透视表!$J$30&amp;"占比"</f>
         <v>7月占比</v>
       </c>
@@ -57700,97 +57337,97 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B9" s="178"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
     </row>
     <row r="10" spans="2:17" ht="21" customHeight="1">
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="176" t="s">
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="176" t="s">
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
     </row>
     <row r="11" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B11" s="173"/>
-      <c r="C11" s="177" t="str">
+      <c r="B11" s="180"/>
+      <c r="C11" s="157" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
       </c>
-      <c r="D11" s="177" t="str">
+      <c r="D11" s="157" t="str">
         <f>透视表!$J$30</f>
         <v>7月</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="177" t="str">
+      <c r="F11" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="G11" s="177" t="str">
+      <c r="G11" s="157" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
       </c>
-      <c r="H11" s="177" t="str">
+      <c r="H11" s="157" t="str">
         <f>透视表!$J$30</f>
         <v>7月</v>
       </c>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="177" t="str">
+      <c r="J11" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="K11" s="177" t="str">
+      <c r="K11" s="157" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
       </c>
-      <c r="L11" s="177" t="str">
+      <c r="L11" s="157" t="str">
         <f>透视表!$J$30</f>
         <v>7月</v>
       </c>
-      <c r="M11" s="177" t="s">
+      <c r="M11" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="177" t="str">
+      <c r="N11" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="28.5" customHeight="1">
       <c r="B12" s="109"/>
-      <c r="C12" s="180">
+      <c r="C12" s="160">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D12" s="180">
+      <c r="D12" s="160">
         <v>9.3000000000000007</v>
       </c>
       <c r="E12" s="110">
@@ -57801,10 +57438,10 @@
         <f>C12/D12-1</f>
         <v>0</v>
       </c>
-      <c r="G12" s="180">
+      <c r="G12" s="160">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H12" s="180">
+      <c r="H12" s="160">
         <v>9.3000000000000007</v>
       </c>
       <c r="I12" s="110">
@@ -57815,10 +57452,10 @@
         <f>G12/H12-1</f>
         <v>0</v>
       </c>
-      <c r="K12" s="180">
+      <c r="K12" s="160">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L12" s="180">
+      <c r="L12" s="160">
         <v>9.3000000000000007</v>
       </c>
       <c r="M12" s="110">
@@ -57831,67 +57468,67 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B13" s="178"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
     </row>
     <row r="14" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="176" t="s">
+      <c r="D14" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
     </row>
     <row r="15" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B15" s="173"/>
-      <c r="C15" s="177" t="s">
+      <c r="B15" s="180"/>
+      <c r="C15" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="177" t="str">
+      <c r="D15" s="157" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
       </c>
-      <c r="E15" s="177" t="str">
+      <c r="E15" s="157" t="str">
         <f>透视表!$J$30</f>
         <v>7月</v>
       </c>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="177" t="str">
+      <c r="G15" s="157" t="str">
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
     </row>
     <row r="16" spans="2:17" ht="28.5" customHeight="1">
       <c r="B16" s="109"/>
@@ -57912,32 +57549,32 @@
         <f>IFERROR(D16/E16-1,"-")</f>
         <v>-0.44444444444444442</v>
       </c>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="175"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
     </row>
     <row r="17" ht="96.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="I12">
@@ -58520,10 +58157,10 @@
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="168">
+      <c r="A8" s="150">
         <v>4954</v>
       </c>
-      <c r="B8" s="168">
+      <c r="B8" s="150">
         <v>1650</v>
       </c>
       <c r="C8" s="130">
@@ -58757,10 +58394,10 @@
       <c r="AB17" s="103"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="168">
+      <c r="A18" s="150">
         <v>4954</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="150">
         <v>1650</v>
       </c>
       <c r="C18" s="130">
@@ -59078,598 +58715,598 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="16" width="9" style="171"/>
+    <col min="8" max="16" width="9" style="153"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="E1" s="169"/>
+      <c r="A1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="E1" s="151"/>
     </row>
     <row r="2" spans="1:16" ht="16.5">
       <c r="C2" s="76" t="s">
-        <v>1750</v>
+        <v>1729</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="76" t="s">
-        <v>1751</v>
+        <v>1730</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76" t="s">
-        <v>1753</v>
-      </c>
-      <c r="H2" s="170"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
+        <v>1732</v>
+      </c>
+      <c r="H2" s="152"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="C3" s="76" t="s">
-        <v>1749</v>
+        <v>1728</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76" t="s">
-        <v>1752</v>
+        <v>1731</v>
       </c>
       <c r="F3" s="76"/>
       <c r="G3" s="76" t="s">
-        <v>1754</v>
-      </c>
-      <c r="H3" s="170"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
+        <v>1733</v>
+      </c>
+      <c r="H3" s="152"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
     </row>
     <row r="5" spans="1:16" ht="16.5">
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="154"/>
     </row>
     <row r="6" spans="1:16" ht="16.5">
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
+      <c r="P6" s="154"/>
     </row>
     <row r="7" spans="1:16" ht="16.5">
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
     </row>
     <row r="8" spans="1:16" ht="16.5">
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
     </row>
     <row r="9" spans="1:16" ht="16.5">
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
     </row>
     <row r="10" spans="1:16" ht="16.5">
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
     </row>
     <row r="11" spans="1:16" ht="16.5">
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
     </row>
     <row r="12" spans="1:16" ht="16.5">
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
     </row>
     <row r="13" spans="1:16" ht="16.5">
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
     </row>
     <row r="14" spans="1:16" ht="16.5">
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="172"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
     </row>
     <row r="15" spans="1:16" ht="16.5">
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="172"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
     </row>
     <row r="16" spans="1:16" ht="16.5">
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
     </row>
     <row r="17" spans="3:16" ht="16.5">
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
     </row>
     <row r="18" spans="3:16" ht="16.5">
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
     </row>
     <row r="19" spans="3:16" ht="16.5">
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
     </row>
     <row r="20" spans="3:16" ht="16.5">
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="172"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
     </row>
     <row r="21" spans="3:16" ht="16.5">
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="172"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
     </row>
     <row r="22" spans="3:16" ht="16.5">
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="172"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
     </row>
     <row r="23" spans="3:16" ht="16.5">
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="172"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
     </row>
     <row r="24" spans="3:16" ht="16.5">
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
     </row>
     <row r="25" spans="3:16" ht="16.5">
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="154"/>
     </row>
     <row r="26" spans="3:16" ht="16.5">
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
     </row>
     <row r="27" spans="3:16" ht="16.5">
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
     </row>
     <row r="28" spans="3:16" ht="16.5">
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
     </row>
     <row r="29" spans="3:16" ht="16.5">
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
     </row>
     <row r="30" spans="3:16" ht="16.5">
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
     </row>
     <row r="31" spans="3:16" ht="16.5">
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="154"/>
     </row>
     <row r="32" spans="3:16" ht="16.5">
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="154"/>
     </row>
     <row r="33" spans="3:16" ht="16.5">
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
     </row>
     <row r="34" spans="3:16" ht="16.5">
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="172"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
     </row>
     <row r="35" spans="3:16" ht="16.5">
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="154"/>
+      <c r="P35" s="154"/>
     </row>
     <row r="36" spans="3:16" ht="16.5">
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
     </row>
     <row r="37" spans="3:16">
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
